--- a/Documents/NMMakerFnFEvent_BOM.xlsx
+++ b/Documents/NMMakerFnFEvent_BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmmanzan\Documents\Arduino\NMMakers_FnF_Event\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmmanzan\Documents\Arduino\NMMakers_FnF_Event\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13728" windowHeight="7380" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AR List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="204">
   <si>
     <t>Owner</t>
   </si>
@@ -659,6 +659,15 @@
   </si>
   <si>
     <t>Intel Maker Nation NM Racer Kit (Beginner, Intermediate and Advanced)</t>
+  </si>
+  <si>
+    <t>Battery Holder 6AA</t>
+  </si>
+  <si>
+    <t>BH26AASF-AS-ND</t>
+  </si>
+  <si>
+    <t>Digikey</t>
   </si>
 </sst>
 </file>
@@ -668,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,8 +784,24 @@
       <name val="Intel Clear Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +841,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1044,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1161,58 +1192,62 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1755,13 +1790,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>850265</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>865505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1802,13 +1837,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1849,13 +1884,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1896,13 +1931,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1943,13 +1978,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1990,13 +2025,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>799094</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>632460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2045,13 +2080,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874287</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>655320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2100,13 +2135,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>839638</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2155,13 +2190,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>854878</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>624840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2210,13 +2245,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>845820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2265,13 +2300,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>60961</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>746761</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>875836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2303,13 +2338,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>881754</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2341,13 +2376,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>731521</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>896193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2379,13 +2414,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>784861</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>870271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2417,13 +2452,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>830581</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>862075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2455,13 +2490,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>137161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874776</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>617221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2493,13 +2528,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>845821</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>797141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2531,13 +2566,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>872278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2586,13 +2621,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>883590</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>861061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2612,6 +2647,44 @@
         <a:xfrm>
           <a:off x="1196341" y="20307301"/>
           <a:ext cx="885494" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866531</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="6829425"/>
+          <a:ext cx="837956" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2893,16 +2966,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -2919,115 +2992,115 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="78" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="77"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="79"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="78"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="E5" s="80"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="78" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3035,43 +3108,43 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="77"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="78"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-    </row>
-    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+    </row>
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -3088,7 +3161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3170,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -3106,16 +3179,16 @@
       <c r="D18" s="6"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3201,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3210,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -3159,7 +3232,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -3168,7 +3241,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -3181,7 +3254,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3194,7 +3267,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -3207,7 +3280,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -3222,16 +3295,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-    </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+    </row>
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -3244,7 +3317,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
@@ -3257,7 +3330,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -3272,7 +3345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
@@ -3285,7 +3358,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
@@ -3298,7 +3371,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -3311,7 +3384,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>69</v>
       </c>
@@ -3324,62 +3397,62 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="80" t="s">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-    </row>
-    <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+    </row>
+    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -3396,62 +3469,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="77"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="78"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="70" t="s">
+    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-    </row>
-    <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+    </row>
+    <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>76</v>
       </c>
@@ -3464,7 +3537,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>78</v>
       </c>
@@ -3504,32 +3577,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="71.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="134.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="134.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="38" t="s">
         <v>183</v>
       </c>
@@ -3542,6 +3615,9 @@
       <c r="H1" t="s">
         <v>167</v>
       </c>
+      <c r="J1" s="86" t="s">
+        <v>203</v>
+      </c>
       <c r="K1" s="41" t="s">
         <v>168</v>
       </c>
@@ -3558,7 +3634,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -3576,6 +3652,9 @@
       <c r="H2" t="s">
         <v>166</v>
       </c>
+      <c r="J2">
+        <v>31.4</v>
+      </c>
       <c r="K2">
         <v>301.86</v>
       </c>
@@ -3596,7 +3675,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>121</v>
       </c>
@@ -3619,14 +3698,14 @@
         <v>64.8</v>
       </c>
       <c r="O3">
-        <f>SUM(K2:O2)-K3</f>
-        <v>2290.5499999999997</v>
+        <f>SUM(J2:O2)-K3</f>
+        <v>2321.9499999999998</v>
       </c>
       <c r="P3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>88</v>
       </c>
@@ -3646,10 +3725,10 @@
       </c>
       <c r="O4">
         <f>3000-O3-K3</f>
-        <v>644.65000000000032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>613.25000000000023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>90</v>
       </c>
@@ -3670,7 +3749,7 @@
         <v>72.680000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>91</v>
       </c>
@@ -3694,7 +3773,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>93</v>
       </c>
@@ -3710,7 +3789,7 @@
       </c>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>95</v>
       </c>
@@ -3726,552 +3805,569 @@
       </c>
       <c r="F8" s="55"/>
     </row>
-    <row r="9" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1.74</v>
+      </c>
+      <c r="E9" s="25">
+        <f>1.57*20</f>
+        <v>31.400000000000002</v>
+      </c>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="25">
-        <v>10.36</v>
-      </c>
-      <c r="E9" s="25">
-        <v>207.2</v>
-      </c>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25">
-        <v>217.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>10</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="25">
+        <v>10.36</v>
+      </c>
+      <c r="E10" s="25">
+        <v>207.2</v>
+      </c>
+      <c r="F10" s="55">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>217.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D11" s="25">
         <v>26</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E11" s="25">
         <f>26*20</f>
         <v>520</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="F11" s="55"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="30" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="25">
         <f>(7.89*4)/20</f>
         <v>1.5779999999999998</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E12" s="25">
         <f>7.89*4</f>
         <v>31.56</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="F12" s="55"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="30" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D13" s="25">
         <f>7.99/20</f>
         <v>0.39950000000000002</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E13" s="25">
         <f>7.99</f>
         <v>7.99</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
+      <c r="F13" s="55"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="30" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D14" s="25">
         <f>(8.99*7)/20</f>
         <v>3.1465000000000001</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E14" s="25">
         <f>8.99*7</f>
         <v>62.93</v>
       </c>
-      <c r="F13" s="55"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="22" t="s">
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="26">
-        <f>SUM(D2:D13)</f>
-        <v>81.084000000000003</v>
-      </c>
-      <c r="E14" s="26">
-        <f>SUM(E2:E13)</f>
-        <v>1611.3200000000002</v>
-      </c>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82" t="s">
+      <c r="D15" s="26">
+        <f>SUM(D2:D14)</f>
+        <v>82.823999999999998</v>
+      </c>
+      <c r="E15" s="26">
+        <f>SUM(E2:E14)</f>
+        <v>1642.72</v>
+      </c>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="38" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E16" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" spans="1:16" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44" t="s">
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D17" s="25">
         <v>2.36</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E17" s="25">
         <v>47.2</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F17" s="55">
         <v>3</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G17" s="25">
         <v>54.28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+    <row r="18" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D18" s="25">
         <v>0.72</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E18" s="25">
         <v>12.44</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F18" s="57">
         <v>3</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G18" s="25">
         <v>14.31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
+    <row r="19" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="39" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <f>0.27*2</f>
         <v>0.54</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="25">
         <v>7.32</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F19" s="57">
         <v>6</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G19" s="25">
         <v>8.42</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="25">
-        <f>0.34*3</f>
-        <v>1.02</v>
-      </c>
-      <c r="E19" s="25">
-        <v>19.62</v>
-      </c>
-      <c r="F19" s="57">
-        <v>9</v>
-      </c>
-      <c r="G19" s="25">
-        <v>22.56</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="25">
+        <f>0.34*3</f>
+        <v>1.02</v>
+      </c>
+      <c r="E20" s="25">
+        <v>19.62</v>
+      </c>
+      <c r="F20" s="57">
+        <v>9</v>
+      </c>
+      <c r="G20" s="25">
+        <v>22.56</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D21" s="25">
         <f>0.16*2</f>
         <v>0.32</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E21" s="25">
         <v>5.2</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F21" s="57">
         <v>6</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G21" s="25">
         <v>5.98</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="31" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <f>0.18*3</f>
         <v>0.54</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E22" s="25">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F22" s="57">
         <v>9</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G22" s="25">
         <v>9.4499999999999993</v>
       </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="30" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D23" s="25">
         <f>108/50</f>
         <v>2.16</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E23" s="25">
         <v>43.2</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C23" s="22" t="s">
+      <c r="F23" s="55"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="26">
-        <f>SUM(D16:D22)</f>
+      <c r="D24" s="26">
+        <f>SUM(D17:D23)</f>
         <v>7.660000000000001</v>
       </c>
-      <c r="E23" s="26">
-        <f>SUM(E16:E22)</f>
+      <c r="E24" s="26">
+        <f>SUM(E17:E23)</f>
         <v>143.20000000000002</v>
       </c>
-      <c r="F23" s="55"/>
-    </row>
-    <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="82" t="s">
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="38" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E25" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="55"/>
-    </row>
-    <row r="25" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44" t="s">
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="25">
-        <v>24</v>
-      </c>
-      <c r="F25" s="55">
-        <v>3</v>
-      </c>
-      <c r="G25" s="25">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
-        <v>181</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="E26" s="25">
+        <v>24</v>
+      </c>
+      <c r="F26" s="55">
+        <v>3</v>
+      </c>
+      <c r="G26" s="25">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D27" s="25">
         <v>7.54</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E27" s="25">
         <v>124.4</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+      <c r="F27" s="55"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="30" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D28" s="25">
         <f>(20.99*2)/20</f>
         <v>2.0989999999999998</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E28" s="25">
         <f>20.99*2</f>
         <v>41.98</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F28" s="55">
         <v>5</v>
       </c>
-      <c r="G27" s="25">
-        <f>E27+11.48</f>
+      <c r="G28" s="25">
+        <f>E28+11.48</f>
         <v>53.459999999999994</v>
       </c>
-      <c r="H27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C28" s="22" t="s">
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="26">
-        <f>SUM(D25:D27)</f>
+      <c r="D29" s="26">
+        <f>SUM(D26:D28)</f>
         <v>10.839</v>
       </c>
-      <c r="E28" s="26">
-        <f>SUM(E25:E27)</f>
+      <c r="E29" s="26">
+        <f>SUM(E26:E28)</f>
         <v>190.38</v>
       </c>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="82" t="s">
+      <c r="F29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="38" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E30" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="55"/>
-    </row>
-    <row r="30" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="45" t="s">
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="21" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="25">
         <f>0.65*4</f>
         <v>2.6</v>
       </c>
-      <c r="E30" s="25">
-        <f>D30*20</f>
+      <c r="E31" s="25">
+        <f>D31*20</f>
         <v>52</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F31" s="58">
         <v>1.82</v>
       </c>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="45" t="s">
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
         <v>153</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" ref="E31:E33" si="0">D31*20</f>
-        <v>31</v>
-      </c>
-      <c r="F31" s="58">
-        <v>4.55</v>
-      </c>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="45" t="s">
-        <v>154</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1.55</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" ref="E32:E34" si="0">D32*20</f>
+        <v>31</v>
+      </c>
+      <c r="F32" s="58">
+        <v>4.55</v>
+      </c>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="1:7" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="25">
         <v>3.3</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E33" s="25">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F33" s="58">
         <v>1.885</v>
       </c>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="1:7" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="45" t="s">
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="21" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D34" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E34" s="25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F34" s="58">
         <v>2.08</v>
       </c>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C34" s="22" t="s">
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="26">
-        <f>SUM(D30:D33)</f>
+      <c r="D35" s="26">
+        <f>SUM(D31:D34)</f>
         <v>8.6</v>
       </c>
-      <c r="E34" s="26">
-        <f>SUM(E30:E33)</f>
+      <c r="E35" s="26">
+        <f>SUM(E31:E34)</f>
         <v>172</v>
       </c>
-      <c r="F34" s="58">
-        <f>SUM(F30:F33)</f>
+      <c r="F35" s="58">
+        <f>SUM(F31:F34)</f>
         <v>10.335000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="65" t="s">
+    <row r="36" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E36" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="24" t="s">
+      <c r="F36" s="58"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="28">
-        <f>SUM(D14,D23,D28,D34)</f>
-        <v>108.18299999999999</v>
-      </c>
-      <c r="E36" s="28">
-        <f>SUM(E14,E23,E28,E34)/20</f>
-        <v>105.845</v>
-      </c>
-      <c r="F36" s="55"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="28">
+        <f>SUM(D15,D24,D29,D35)</f>
+        <v>109.92299999999999</v>
+      </c>
+      <c r="E37" s="28">
+        <f>SUM(E15,E24,E29,E35)/20</f>
+        <v>107.41500000000001</v>
+      </c>
       <c r="F37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="24" t="s">
+    <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D39" s="28">
         <f>O4</f>
-        <v>644.65000000000032</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="55"/>
+        <v>613.25000000000023</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.sparkfun.com/products/9815"/>
@@ -4281,35 +4377,36 @@
     <hyperlink ref="A6" r:id="rId5" display="https://www.sparkfun.com/products/12629"/>
     <hyperlink ref="A7" r:id="rId6" display="https://www.sparkfun.com/products/8233"/>
     <hyperlink ref="A8" r:id="rId7" display="https://www.sparkfun.com/products/91"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.sparkfun.com/products/13301"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.sparkfun.com/products/13787"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A16" r:id="rId11" display="https://www.sparkfun.com/products/12877"/>
-    <hyperlink ref="A17" r:id="rId12" display="ROB-12567"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://www.sparkfun.com/products/13685"/>
-    <hyperlink ref="A26" r:id="rId14"/>
-    <hyperlink ref="A27" r:id="rId15"/>
-    <hyperlink ref="A22" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A21" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.sparkfun.com/products/13301"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.sparkfun.com/products/13787"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://www.sparkfun.com/products/12877"/>
+    <hyperlink ref="A18" r:id="rId12" display="ROB-12567"/>
+    <hyperlink ref="A26" r:id="rId13" display="https://www.sparkfun.com/products/13685"/>
+    <hyperlink ref="A27" r:id="rId14"/>
+    <hyperlink ref="A28" r:id="rId15"/>
+    <hyperlink ref="A23" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A22" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A13" r:id="rId21"/>
+    <hyperlink ref="A14" r:id="rId22"/>
+    <hyperlink ref="A9" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId23"/>
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId24"/>
   <headerFooter>
     <oddHeader>&amp;LIntel Maker Nation Presents&amp;CA Friends and Family Event&amp;RApril 2016</oddHeader>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="14" max="16383" man="1"/>
-    <brk id="23" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
+    <brk id="24" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -4317,33 +4414,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="67" t="s">
         <v>103</v>
       </c>
       <c r="F1" t="s">
@@ -4359,14 +4456,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="67" t="s">
         <v>112</v>
       </c>
       <c r="G2" t="s">
@@ -4379,14 +4476,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="67" t="s">
         <v>112</v>
       </c>
       <c r="F3" t="s">
@@ -4402,7 +4499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -4412,10 +4509,10 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="67">
         <v>2</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="67">
         <v>8</v>
       </c>
       <c r="F4" t="s">
@@ -4428,62 +4525,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="H5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-    </row>
-    <row r="11" spans="1:9" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:9" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="68" t="s">
         <v>139</v>
       </c>
       <c r="F11" s="35" t="s">
@@ -4499,7 +4596,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -4514,7 +4611,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -4522,7 +4619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -4539,7 +4636,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>135</v>
       </c>
@@ -4553,7 +4650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -4567,7 +4664,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -4584,7 +4681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>135</v>
       </c>
@@ -4598,7 +4695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>136</v>
       </c>
@@ -4612,7 +4709,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -4629,7 +4726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>136</v>
       </c>
@@ -4643,7 +4740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -4657,7 +4754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>136</v>
       </c>
@@ -4665,7 +4762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>135</v>
       </c>

--- a/Documents/NMMakerFnFEvent_BOM.xlsx
+++ b/Documents/NMMakerFnFEvent_BOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
   <si>
     <t>Owner</t>
   </si>
@@ -488,9 +488,6 @@
     <t>IMR Provided 3D Printed Parts</t>
   </si>
   <si>
-    <t>9V Battery Holder</t>
-  </si>
-  <si>
     <t>Proximity Sensor Holder</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
   </si>
   <si>
     <t>IMR-RacerLED</t>
-  </si>
-  <si>
-    <t>IMR-RacerBatt</t>
   </si>
   <si>
     <t>IMR-RacerPSens</t>
@@ -1196,6 +1190,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1244,10 +1242,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2338,13 +2332,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>881754</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2376,13 +2370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>731521</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>896193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2415,13 +2409,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>784861</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>870271</xdr:rowOff>
+      <xdr:rowOff>832170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2993,13 +2987,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3008,13 +3002,13 @@
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="80" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3025,9 +3019,9 @@
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="79"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3036,18 +3030,18 @@
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="80"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3056,7 +3050,7 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="77" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="6"/>
@@ -3069,7 +3063,7 @@
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
@@ -3080,18 +3074,18 @@
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -3100,7 +3094,7 @@
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3113,7 +3107,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
@@ -3122,7 +3116,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="79"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
@@ -3131,18 +3125,18 @@
         <v>34</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="80"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -3180,13 +3174,13 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -3296,13 +3290,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -3398,13 +3392,13 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -3413,7 +3407,7 @@
       <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="80" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="1"/>
@@ -3426,7 +3420,7 @@
       <c r="B38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -3437,7 +3431,7 @@
       <c r="B39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -3448,7 +3442,7 @@
       <c r="B40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -3476,7 +3470,7 @@
       <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="80" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="1"/>
@@ -3489,7 +3483,7 @@
       <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="79"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -3500,7 +3494,7 @@
       <c r="B44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -3511,18 +3505,18 @@
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="76"/>
     </row>
     <row r="47" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -3577,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="71.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3598,40 +3592,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="N1" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>171</v>
-      </c>
       <c r="O1" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3650,7 +3644,7 @@
       </c>
       <c r="F2" s="55"/>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J2">
         <v>31.4</v>
@@ -3672,7 +3666,7 @@
         <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3692,7 +3686,7 @@
       </c>
       <c r="F3" s="55"/>
       <c r="J3" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K3">
         <v>64.8</v>
@@ -3702,7 +3696,7 @@
         <v>2321.9499999999998</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3721,7 +3715,7 @@
       </c>
       <c r="F4" s="55"/>
       <c r="J4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O4">
         <f>3000-O3-K3</f>
@@ -3755,7 +3749,7 @@
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="60">
         <v>10.36</v>
@@ -3770,7 +3764,7 @@
         <v>227.92</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3806,12 +3800,12 @@
       <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="85" t="s">
-        <v>202</v>
+      <c r="A9" s="69" t="s">
+        <v>200</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D9" s="25">
         <v>1.74</v>
@@ -3849,7 +3843,7 @@
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="25">
         <v>26</v>
@@ -3863,11 +3857,11 @@
     </row>
     <row r="12" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="25">
         <f>(7.89*4)/20</f>
@@ -3882,11 +3876,11 @@
     </row>
     <row r="13" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" s="25">
         <f>7.99/20</f>
@@ -3901,11 +3895,11 @@
     </row>
     <row r="14" spans="1:16" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" s="25">
         <f>(8.99*7)/20</f>
@@ -3932,16 +3926,16 @@
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="55"/>
     </row>
@@ -3968,11 +3962,11 @@
     </row>
     <row r="18" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" s="25">
         <v>0.72</v>
@@ -3993,7 +3987,7 @@
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="25">
         <f>0.27*2</f>
@@ -4018,7 +4012,7 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" s="25">
         <f>0.34*3</f>
@@ -4117,16 +4111,16 @@
       <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="55"/>
     </row>
@@ -4153,11 +4147,11 @@
     </row>
     <row r="27" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="25">
         <v>7.54</v>
@@ -4170,11 +4164,11 @@
     </row>
     <row r="28" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" s="25">
         <f>(20.99*2)/20</f>
@@ -4208,26 +4202,26 @@
       <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="25">
         <f>0.65*4</f>
@@ -4244,123 +4238,103 @@
     </row>
     <row r="32" spans="1:10" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="21" t="s">
         <v>148</v>
       </c>
       <c r="D32" s="25">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E34" si="0">D32*20</f>
-        <v>31</v>
+        <f>D32*20</f>
+        <v>66</v>
       </c>
       <c r="F32" s="58">
-        <v>4.55</v>
+        <v>1.885</v>
       </c>
       <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="21" t="s">
         <v>149</v>
       </c>
       <c r="D33" s="25">
-        <v>3.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f t="shared" ref="E32:E33" si="0">D33*20</f>
+        <v>23</v>
       </c>
       <c r="F33" s="58">
-        <v>1.885</v>
+        <v>2.08</v>
       </c>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="0"/>
-        <v>23</v>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="26">
+        <f>SUM(D31:D33)</f>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="E34" s="26">
+        <f>SUM(E31:E33)</f>
+        <v>141</v>
       </c>
       <c r="F34" s="58">
-        <v>2.08</v>
-      </c>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="26">
-        <f>SUM(D31:D34)</f>
-        <v>8.6</v>
-      </c>
-      <c r="E35" s="26">
-        <f>SUM(E31:E34)</f>
-        <v>172</v>
-      </c>
-      <c r="F35" s="58">
-        <f>SUM(F31:F34)</f>
-        <v>10.335000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="37"/>
+        <f>SUM(F31:F33)</f>
+        <v>5.7850000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="28">
+        <f>SUM(D15,D24,D29,D34)</f>
+        <v>108.37299999999999</v>
+      </c>
+      <c r="E36" s="28">
+        <f>SUM(E15,E24,E29,E34)/20</f>
+        <v>105.86500000000001</v>
+      </c>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="28">
-        <f>SUM(D15,D24,D29,D35)</f>
-        <v>109.92299999999999</v>
-      </c>
-      <c r="E37" s="28">
-        <f>SUM(E15,E24,E29,E35)/20</f>
-        <v>107.41500000000001</v>
-      </c>
       <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="55"/>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="28">
+      <c r="C38" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="28">
         <f>O4</f>
         <v>613.25000000000023</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="55"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4544,7 +4518,7 @@
         <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -4554,7 +4528,7 @@
         <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
@@ -4575,7 +4549,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>139</v>
@@ -4630,10 +4604,10 @@
         <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4647,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4661,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,10 +4649,10 @@
         <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4706,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4737,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,13 +4719,13 @@
         <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
